--- a/Payroll/Content/REPORTES/NOMINA/HCalculo_E18_A2020_NP15_TP3_A.xlsx
+++ b/Payroll/Content/REPORTES/NOMINA/HCalculo_E18_A2020_NP15_TP3_A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>AÑO</t>
   </si>
@@ -107,31 +107,79 @@
     <t>(1)Sueldo</t>
   </si>
   <si>
-    <t>(12)Aguinaldo</t>
+    <t>(2)Sueldo Retroactivo</t>
+  </si>
+  <si>
+    <t>(5)Premio de Asistencia</t>
+  </si>
+  <si>
+    <t>(6)Premio de Puntualidad</t>
+  </si>
+  <si>
+    <t>(17)Despensa en Efectivo</t>
   </si>
   <si>
     <t>(24)Dias Vacaciones Proporcionales</t>
   </si>
   <si>
-    <t>(25)Dias Vacs Años Anteriores</t>
-  </si>
-  <si>
-    <t>(26)Parte Proporcional Prima Vacacional</t>
+    <t>(31)Dias Trabajados</t>
+  </si>
+  <si>
+    <t>(32)Dias Cotizados</t>
+  </si>
+  <si>
+    <t>(34)Dias Incapacidades</t>
+  </si>
+  <si>
+    <t>(36)Dias Ausentismo</t>
+  </si>
+  <si>
+    <t>(40)Prima de Vacaciones</t>
+  </si>
+  <si>
+    <t>(45)Dias Retroactivo</t>
   </si>
   <si>
     <t>(97)Reembolso Seguro Auto</t>
   </si>
   <si>
-    <t>(625)Compensacion Extra</t>
-  </si>
-  <si>
-    <t>(626)Compensacion Extra Vac. Ant.</t>
+    <t>(195)Subsidio al Empleo Causado</t>
+  </si>
+  <si>
+    <t>(198)Subsidio al Empleo</t>
   </si>
   <si>
     <t>(990)Total de Percepciones</t>
   </si>
   <si>
-    <t>(1011)ISPT Finiquitos</t>
+    <t>(1001)ISR</t>
+  </si>
+  <si>
+    <t>(1013)Falta Injustificada</t>
+  </si>
+  <si>
+    <t>(1052)Prestamo Cliente</t>
+  </si>
+  <si>
+    <t>(1060)Descuento Prestamo Vehicular</t>
+  </si>
+  <si>
+    <t>(1075)Prestamo Cliente 2</t>
+  </si>
+  <si>
+    <t>(1106)Adeudo Infonavit</t>
+  </si>
+  <si>
+    <t>(1113)CREDITO FONACOT</t>
+  </si>
+  <si>
+    <t>(1114)ADEUDO CREDITO FONACOT</t>
+  </si>
+  <si>
+    <t>(1162)Descuento Seguro de Auto</t>
+  </si>
+  <si>
+    <t>(1201)Incapacidades Enfermedad general</t>
   </si>
   <si>
     <t>(1310)Cuota IMSS Empleado</t>
@@ -140,40 +188,151 @@
     <t>(1311)Dscto Retiro por Cesantia y Vejez</t>
   </si>
   <si>
+    <t>(1542)Descuento Telefono</t>
+  </si>
+  <si>
+    <t>(1543)Otros Descuentos</t>
+  </si>
+  <si>
     <t>(1990)Total de Deducciones</t>
   </si>
   <si>
     <t>NETO A PAGAR FISCAL</t>
   </si>
   <si>
+    <t>(600)Diferencia Pactada</t>
+  </si>
+  <si>
+    <t>(601)Transporte</t>
+  </si>
+  <si>
+    <t>(603)Compensacion Anticipo</t>
+  </si>
+  <si>
+    <t>(605)Bono Temporal por Promocion</t>
+  </si>
+  <si>
+    <t>(605)Compensacion Promocion</t>
+  </si>
+  <si>
+    <t>(605)Compensación Promoción</t>
+  </si>
+  <si>
+    <t>(608)Bono Cobranza</t>
+  </si>
+  <si>
+    <t>(611)Retroactivo</t>
+  </si>
+  <si>
+    <t>(619)Transporte Variable</t>
+  </si>
+  <si>
+    <t>(633)Bono Productividad</t>
+  </si>
+  <si>
     <t>(653)Bono Programa de Prevencion Voluntaria</t>
   </si>
   <si>
     <t>(655)Transporte</t>
   </si>
   <si>
+    <t>(1107)Otros Descuentos Gastos</t>
+  </si>
+  <si>
     <t>NETO A PAGAR GASTO</t>
   </si>
   <si>
     <t>ZAMZAHARA</t>
   </si>
   <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>FERRER</t>
-  </si>
-  <si>
-    <t>EMMA</t>
-  </si>
-  <si>
-    <t>39927020386</t>
-  </si>
-  <si>
-    <t>VAFE700420199</t>
-  </si>
-  <si>
-    <t>VAFE700420MOCRRM01</t>
+    <t>RUBIO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>ULISES FERNANDO</t>
+  </si>
+  <si>
+    <t>20978111308</t>
+  </si>
+  <si>
+    <t>RUGU811113QA8</t>
+  </si>
+  <si>
+    <t>RUGU811113HMCBRL01</t>
+  </si>
+  <si>
+    <t>ANL058</t>
+  </si>
+  <si>
+    <t>ANALISTA DE MESA DE SERVICIO JR</t>
+  </si>
+  <si>
+    <t>ANALISTAS/ABOGADOS/RECLUTADORES</t>
+  </si>
+  <si>
+    <t>REG0001</t>
+  </si>
+  <si>
+    <t>CORPORATIVO</t>
+  </si>
+  <si>
+    <t>GENERICO</t>
+  </si>
+  <si>
+    <t>SUC0001</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ESPARZA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>42048507927</t>
+  </si>
+  <si>
+    <t>EAHJ851218FL1</t>
+  </si>
+  <si>
+    <t>EAHJ851218HDFSRR00</t>
+  </si>
+  <si>
+    <t>GCA0099</t>
+  </si>
+  <si>
+    <t>GERENCIA DE MESA DE SERVICIO</t>
+  </si>
+  <si>
+    <t>SUBDIRECCION DE PRODUCCION TI</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ZULLELY</t>
+  </si>
+  <si>
+    <t>94099160353</t>
+  </si>
+  <si>
+    <t>COLZ910510BI3</t>
+  </si>
+  <si>
+    <t>COLZ910510MHGRPL01</t>
   </si>
   <si>
     <t>PMT0030</t>
@@ -185,10 +344,235 @@
     <t>ESPECIALISTAS/GESTORES</t>
   </si>
   <si>
-    <t>SUC6030</t>
-  </si>
-  <si>
-    <t>SAN LORENZO</t>
+    <t>SUC6072</t>
+  </si>
+  <si>
+    <t>ACTOPAN</t>
+  </si>
+  <si>
+    <t>REG0014</t>
+  </si>
+  <si>
+    <t>HIDALGO</t>
+  </si>
+  <si>
+    <t>VALDEZ</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>LUIS LEONARDO</t>
+  </si>
+  <si>
+    <t>17169027343</t>
+  </si>
+  <si>
+    <t>VAML900406UB0</t>
+  </si>
+  <si>
+    <t>VAML900406HDFLJS08</t>
+  </si>
+  <si>
+    <t>NUNEZ</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>JOSE IVAN</t>
+  </si>
+  <si>
+    <t>11967829877</t>
+  </si>
+  <si>
+    <t>NUMI781029DR7</t>
+  </si>
+  <si>
+    <t>NUMI781029HDFXRV07</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>AVILES</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>45108936332</t>
+  </si>
+  <si>
+    <t>JUAM890610HR2</t>
+  </si>
+  <si>
+    <t>JUAM890610HDFRVR07</t>
+  </si>
+  <si>
+    <t>GTE0540</t>
+  </si>
+  <si>
+    <t>GERENTE DE SUCURSAL</t>
+  </si>
+  <si>
+    <t>GERENTES/SUBGERENTES</t>
+  </si>
+  <si>
+    <t>SUC6189</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL TEOTONGO</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>RANGEL</t>
+  </si>
+  <si>
+    <t>LEMUS</t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>96098302415</t>
+  </si>
+  <si>
+    <t>RALH830130QH5</t>
+  </si>
+  <si>
+    <t>RALH830130HMCNMG00</t>
+  </si>
+  <si>
+    <t>SUC6226</t>
+  </si>
+  <si>
+    <t>EL CABALLITO</t>
+  </si>
+  <si>
+    <t>ZON0045</t>
+  </si>
+  <si>
+    <t>NEZA-ORIENTE</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>ARTEMIO</t>
+  </si>
+  <si>
+    <t>2166768503</t>
+  </si>
+  <si>
+    <t>RORA671020GA9</t>
+  </si>
+  <si>
+    <t>RORA671020HDFSSR04</t>
+  </si>
+  <si>
+    <t>GST001</t>
+  </si>
+  <si>
+    <t>GESTOR DE COBRANZA</t>
+  </si>
+  <si>
+    <t>GCA0004R</t>
+  </si>
+  <si>
+    <t>GERENCIA DE COBRANZA</t>
+  </si>
+  <si>
+    <t>ZON0009</t>
+  </si>
+  <si>
+    <t>TLAHUAC</t>
+  </si>
+  <si>
+    <t>SUC6017</t>
+  </si>
+  <si>
+    <t>TULYEHUALCO</t>
+  </si>
+  <si>
+    <t>2000-02-03</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>GUILLERMO TRINIDAD</t>
+  </si>
+  <si>
+    <t>42997709854</t>
+  </si>
+  <si>
+    <t>HEMG770827DV1</t>
+  </si>
+  <si>
+    <t>HEMG770827HDFRRL02</t>
+  </si>
+  <si>
+    <t>GTE0860</t>
+  </si>
+  <si>
+    <t>GERENTE ZONAL</t>
+  </si>
+  <si>
+    <t>GCA0070J</t>
+  </si>
+  <si>
+    <t>GERENCIA ZONAL</t>
+  </si>
+  <si>
+    <t>GERENCIA REGIONAL</t>
+  </si>
+  <si>
+    <t>ZON00CI4</t>
+  </si>
+  <si>
+    <t>CI GUADALAJARA</t>
+  </si>
+  <si>
+    <t>SUC6075</t>
+  </si>
+  <si>
+    <t>TULTITLAN</t>
+  </si>
+  <si>
+    <t>2014-03-20</t>
+  </si>
+  <si>
+    <t>2018-12-03</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>ESTELA</t>
+  </si>
+  <si>
+    <t>10866940397</t>
+  </si>
+  <si>
+    <t>SORE690115HJ4</t>
+  </si>
+  <si>
+    <t>SORE690115MMCTSS03</t>
+  </si>
+  <si>
+    <t>SUC6063</t>
+  </si>
+  <si>
+    <t>REFORMA POLITICA</t>
   </si>
   <si>
     <t>ZON0006</t>
@@ -197,46 +581,10 @@
     <t>IZTAPALAPA</t>
   </si>
   <si>
-    <t>1997-10-27</t>
+    <t>2002-04-15</t>
   </si>
   <si>
     <t>2018-12-10</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>JULIO GUILLERMO</t>
-  </si>
-  <si>
-    <t>42008123723</t>
-  </si>
-  <si>
-    <t>CAGJ810123459</t>
-  </si>
-  <si>
-    <t>CAGJ810123HDFHNL03</t>
-  </si>
-  <si>
-    <t>SUC6234</t>
-  </si>
-  <si>
-    <t>TLAXCO</t>
-  </si>
-  <si>
-    <t>ZON0011</t>
-  </si>
-  <si>
-    <t>PUEBLA</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -310,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:CA11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,19 +782,19 @@
       <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AT1" s="2" t="s">
@@ -457,6 +805,99 @@
       </c>
       <c r="AV1" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -470,135 +911,228 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E2" s="5">
-        <v>300002</v>
+        <v>13680</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="S2" s="5">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="V2" s="5">
-        <v>418</v>
+        <v>135</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="6">
         <v>9666.67</v>
       </c>
       <c r="AB2" s="5">
-        <v>889</v>
+        <v>1547</v>
       </c>
       <c r="AC2" s="5">
-        <v>889</v>
+        <v>1547</v>
       </c>
       <c r="AD2" s="6">
         <v>336.79</v>
       </c>
       <c r="AF2" s="6">
-        <v>3222.22</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>3495.89</v>
+        <v>4833.34</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="AH2" s="6">
-        <v>5826.49</v>
+        <v>483.33</v>
       </c>
       <c r="AI2" s="6">
-        <v>1933.33</v>
+        <v>483.33</v>
       </c>
       <c r="AJ2" s="6">
-        <v>1456.62</v>
-      </c>
-      <c r="AK2" s="6">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="AL2" s="6">
-        <v>2601.83</v>
+        <v>15</v>
       </c>
       <c r="AM2" s="6">
-        <v>466.67</v>
-      </c>
-      <c r="AN2" s="6">
-        <v>21397.05</v>
-      </c>
-      <c r="AO2" s="6">
-        <v>3276.95</v>
-      </c>
-      <c r="AP2" s="6">
-        <v>30.81</v>
-      </c>
-      <c r="AQ2" s="6">
-        <v>27.72</v>
-      </c>
-      <c r="AR2" s="6">
-        <v>3335.48</v>
-      </c>
-      <c r="AS2" s="7">
-        <v>18061.57</v>
-      </c>
-      <c r="AT2" s="6">
-        <v>544</v>
+        <v>15</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="AU2" s="6">
-        <v>1800</v>
-      </c>
-      <c r="AV2" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AV2" s="6">
+        <v>604.95</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF2" s="6">
+        <v>67.72</v>
+      </c>
+      <c r="BG2" s="6">
+        <v>56.83</v>
+      </c>
+      <c r="BH2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ2" s="6">
+        <v>729.5</v>
+      </c>
+      <c r="BK2" s="7">
+        <v>5270.5</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA2" s="8">
         <v>0</v>
       </c>
     </row>
@@ -613,135 +1147,2116 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5">
-        <v>302420</v>
+        <v>11196</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="S3" s="5">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="V3" s="5">
-        <v>529</v>
+        <v>135</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AA3" s="6">
-        <v>3858.6</v>
+        <v>9666.67</v>
       </c>
       <c r="AB3" s="5">
-        <v>942</v>
+        <v>1409</v>
       </c>
       <c r="AC3" s="5">
-        <v>942</v>
+        <v>1409</v>
       </c>
       <c r="AD3" s="6">
-        <v>134.43</v>
-      </c>
-      <c r="AF3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>1110.01</v>
+        <v>336.79</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>4833.34</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="AH3" s="6">
-        <v>312.92</v>
+        <v>483.33</v>
       </c>
       <c r="AI3" s="6">
-        <v>771.72</v>
+        <v>483.33</v>
       </c>
       <c r="AJ3" s="6">
-        <v>78.23</v>
+        <v>200</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AL3" s="6">
-        <v>455.85</v>
+        <v>15</v>
       </c>
       <c r="AM3" s="6">
-        <v>234.34</v>
-      </c>
-      <c r="AN3" s="6">
-        <v>2963.07</v>
-      </c>
-      <c r="AO3" s="6">
-        <v>163.72</v>
+        <v>15</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR3" s="6">
-        <v>163.72</v>
-      </c>
-      <c r="AS3" s="7">
-        <v>2799.35</v>
+        <v>91</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV3" s="8">
+        <v>91</v>
+      </c>
+      <c r="AU3" s="6">
+        <v>6000</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>604.95</v>
+      </c>
+      <c r="AW3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF3" s="6">
+        <v>67.72</v>
+      </c>
+      <c r="BG3" s="6">
+        <v>56.83</v>
+      </c>
+      <c r="BH3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ3" s="6">
+        <v>729.5</v>
+      </c>
+      <c r="BK3" s="7">
+        <v>5270.5</v>
+      </c>
+      <c r="BL3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="5">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5">
+        <v>16185</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" s="5">
+        <v>314</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" s="5">
+        <v>13</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>3858.33</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>547</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>547</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>134.42</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>1929.16</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>192.92</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>192.92</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>200</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>50</v>
+      </c>
+      <c r="AS4" s="6">
+        <v>174.75</v>
+      </c>
+      <c r="AT4" s="6">
+        <v>39.31</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>2604.31</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF4" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="BG4" s="6">
+        <v>22.68</v>
+      </c>
+      <c r="BH4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ4" s="6">
+        <v>47.88</v>
+      </c>
+      <c r="BK4" s="7">
+        <v>2556.43</v>
+      </c>
+      <c r="BL4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW4" s="6">
+        <v>950</v>
+      </c>
+      <c r="BX4" s="6">
+        <v>950</v>
+      </c>
+      <c r="BY4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5">
+        <v>31108</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="5">
+        <v>299</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="V5" s="5">
+        <v>135</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>9666.67</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>1546</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>1546</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>336.79</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>4833.34</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>483.33</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>483.33</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>200</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU5" s="6">
+        <v>6000</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>604.95</v>
+      </c>
+      <c r="AW5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF5" s="6">
+        <v>67.72</v>
+      </c>
+      <c r="BG5" s="6">
+        <v>56.83</v>
+      </c>
+      <c r="BH5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ5" s="6">
+        <v>729.5</v>
+      </c>
+      <c r="BK5" s="7">
+        <v>5270.5</v>
+      </c>
+      <c r="BL5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="5">
+        <v>33930</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="5">
+        <v>299</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="5">
+        <v>135</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>9666.67</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>1545</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>1545</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>336.79</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>4833.34</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>483.33</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>483.33</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>200</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>604.95</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF6" s="6">
+        <v>67.72</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>56.83</v>
+      </c>
+      <c r="BH6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ6" s="6">
+        <v>729.5</v>
+      </c>
+      <c r="BK6" s="7">
+        <v>5270.5</v>
+      </c>
+      <c r="BL6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="5">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="5">
+        <v>35306</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="V7" s="5">
+        <v>430</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>8625</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>1472</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>1472</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>300.49</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>4312.5</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>431.25</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>431.25</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>200</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>15</v>
+      </c>
+      <c r="AN7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR7" s="6">
+        <v>50</v>
+      </c>
+      <c r="AS7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU7" s="6">
+        <v>5425</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>492.95</v>
+      </c>
+      <c r="AW7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF7" s="6">
+        <v>58.73</v>
+      </c>
+      <c r="BG7" s="6">
+        <v>50.71</v>
+      </c>
+      <c r="BH7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ7" s="6">
+        <v>602.39</v>
+      </c>
+      <c r="BK7" s="7">
+        <v>4822.61</v>
+      </c>
+      <c r="BL7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM7" s="6">
+        <v>965</v>
+      </c>
+      <c r="BN7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV7" s="6">
+        <v>1932.3</v>
+      </c>
+      <c r="BW7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX7" s="6">
+        <v>2897.3</v>
+      </c>
+      <c r="BY7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="5">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5">
+        <v>39718</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="S8" s="5">
+        <v>326</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="V8" s="5">
+        <v>173</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>3858.33</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>593</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>593</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>134.42</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>1929.16</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>1286.11</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>321.53</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>321.53</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>200</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>15</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>15</v>
+      </c>
+      <c r="AN8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ8" s="6">
+        <v>10</v>
+      </c>
+      <c r="AR8" s="6">
+        <v>50</v>
+      </c>
+      <c r="AS8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU8" s="6">
+        <v>4108.33</v>
+      </c>
+      <c r="AV8" s="6">
+        <v>298.38</v>
+      </c>
+      <c r="AW8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF8" s="6">
+        <v>42.01</v>
+      </c>
+      <c r="BG8" s="6">
+        <v>37.81</v>
+      </c>
+      <c r="BH8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ8" s="6">
+        <v>378.2</v>
+      </c>
+      <c r="BK8" s="7">
+        <v>3730.13</v>
+      </c>
+      <c r="BL8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV8" s="6">
+        <v>1145.7</v>
+      </c>
+      <c r="BW8" s="6">
+        <v>1300</v>
+      </c>
+      <c r="BX8" s="6">
+        <v>2445.7</v>
+      </c>
+      <c r="BY8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="5">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5">
+        <v>300006</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="S9" s="5">
+        <v>354</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="V9" s="5">
+        <v>551</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>8183.77</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>1181</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>1181</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>285.12</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>4091.89</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>409.19</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>409.19</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>200</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL9" s="6">
+        <v>15</v>
+      </c>
+      <c r="AM9" s="6">
+        <v>15</v>
+      </c>
+      <c r="AN9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" s="6">
+        <v>1703.42</v>
+      </c>
+      <c r="AQ9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR9" s="6">
+        <v>50</v>
+      </c>
+      <c r="AS9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU9" s="6">
+        <v>6863.69</v>
+      </c>
+      <c r="AV9" s="6">
+        <v>446.23</v>
+      </c>
+      <c r="AW9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF9" s="6">
+        <v>54.93</v>
+      </c>
+      <c r="BG9" s="6">
+        <v>48.11</v>
+      </c>
+      <c r="BH9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ9" s="6">
+        <v>549.27</v>
+      </c>
+      <c r="BK9" s="7">
+        <v>6314.42</v>
+      </c>
+      <c r="BL9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM9" s="6">
+        <v>965</v>
+      </c>
+      <c r="BN9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR9" s="6">
+        <v>65042.72</v>
+      </c>
+      <c r="BS9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX9" s="6">
+        <v>66007.72</v>
+      </c>
+      <c r="BY9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>18</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5">
+        <v>300008</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="S10" s="5">
+        <v>288</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="V10" s="5">
+        <v>548</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>28375</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>1485</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>1485</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>988.58</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>14187.5</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>1418.75</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>1418.75</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>200</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL10" s="6">
+        <v>15</v>
+      </c>
+      <c r="AM10" s="6">
+        <v>15</v>
+      </c>
+      <c r="AN10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP10" s="6">
+        <v>4019.17</v>
+      </c>
+      <c r="AQ10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU10" s="6">
+        <v>21244.17</v>
+      </c>
+      <c r="AV10" s="6">
+        <v>3107.95</v>
+      </c>
+      <c r="AW10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF10" s="6">
+        <v>229.04</v>
+      </c>
+      <c r="BG10" s="6">
+        <v>166.82</v>
+      </c>
+      <c r="BH10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ10" s="6">
+        <v>3503.81</v>
+      </c>
+      <c r="BK10" s="7">
+        <v>17740.36</v>
+      </c>
+      <c r="BL10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM10" s="6">
+        <v>965</v>
+      </c>
+      <c r="BN10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV10" s="6">
+        <v>1846.16</v>
+      </c>
+      <c r="BW10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX10" s="6">
+        <v>2811.16</v>
+      </c>
+      <c r="BY10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="5">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>18</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="5">
+        <v>300009</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" s="5">
+        <v>318</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="V11" s="5">
+        <v>389</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>6333.33</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>859</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>859</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>220.65</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11" s="6">
+        <v>15</v>
+      </c>
+      <c r="AN11" s="6">
+        <v>15</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP11" s="6">
+        <v>1200</v>
+      </c>
+      <c r="AQ11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW11" s="6">
+        <v>3166.66</v>
+      </c>
+      <c r="AX11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE11" s="6">
+        <v>15</v>
+      </c>
+      <c r="BF11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV11" s="6">
+        <v>187</v>
+      </c>
+      <c r="BW11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX11" s="6">
+        <v>187</v>
+      </c>
+      <c r="BY11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA11" s="8">
         <v>0</v>
       </c>
     </row>
